--- a/reports/result/Байданкинское.xlsx
+++ b/reports/result/Байданкинское.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\for made\Pycharm-projects\Unstructured-field-data-aggregator\reports\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\For_Python\Unstructured-field-data-aggregator\reports\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BCDE4F-A1F2-4ABA-830C-FCC1AF59B939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9960" xr2:uid="{690C349C-C300-4CC8-93DC-ED18E3D7DAF8}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9960"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Байданкинское" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -104,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,18 +192,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{5565B748-7E9B-443A-BF30-DFEC7F72EF2A}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -515,11 +514,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2F952E-BD12-487E-85AD-EE75D5347F68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,102 +559,102 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>0.13500000000000001</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>0.66490000000000005</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>0.66</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>0.216</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>0.754</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>0.216</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>0.80300000000000005</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>0.216</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>0.81799999999999995</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>0.67500000000000004</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
